--- a/data/trans_orig/dukeGLOBAL-Clase-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Clase-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>48.07337141303788</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>50.22642612794142</v>
+        <v>50.22642612794141</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>48.26829749954253</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>47.46710460306038</v>
+        <v>47.4329246392228</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>48.28991873467365</v>
+        <v>48.21584587415328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47.31681091086022</v>
+        <v>47.26035173419727</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48.7305600197758</v>
+        <v>48.61625591781183</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>47.24786109719599</v>
+        <v>47.24247955846399</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>48.09998211892601</v>
+        <v>48.09075784676932</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>47.36893874056174</v>
+        <v>47.4175460975573</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>49.65421596758526</v>
+        <v>49.65402214708386</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>47.63148624566642</v>
+        <v>47.65101848276862</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48.39826528950133</v>
+        <v>48.38177715577535</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47.56371132318219</v>
+        <v>47.51970704780231</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>49.34241877719035</v>
+        <v>49.35075702034024</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>48.97280900765468</v>
+        <v>48.93412709801558</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>49.6673649379234</v>
+        <v>49.7012166549838</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48.61092697052498</v>
+        <v>48.64807591230803</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50.00366788647019</v>
+        <v>49.93711332694991</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>49.04887504628321</v>
+        <v>49.05970374418343</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>49.69081696753071</v>
+        <v>49.74703003160391</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>48.75568590791859</v>
+        <v>48.72751855036081</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>50.75844841900289</v>
+        <v>50.75923313047967</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>48.81212288273418</v>
+        <v>48.77881974026022</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49.53425721200416</v>
+        <v>49.57360659424801</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48.49471630898439</v>
+        <v>48.51741599007688</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>50.20103214165682</v>
+        <v>50.20596008155616</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>47.88615874361925</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>48.79926496601784</v>
+        <v>48.79926496601785</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>48.25068077948597</v>
@@ -829,7 +829,7 @@
         <v>47.9165842566249</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>48.60146597365147</v>
+        <v>48.60146597365149</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>47.45976768092871</v>
+        <v>47.2273493853787</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>48.37147160067264</v>
+        <v>48.28678551803703</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47.19537505079013</v>
+        <v>47.20063020161538</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47.66071509789198</v>
+        <v>47.71679060024691</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>47.29857498967</v>
+        <v>47.44042770834135</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>46.94506480421851</v>
+        <v>46.81912362218562</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>47.20671147248905</v>
+        <v>47.21287612520283</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>48.18442398346218</v>
+        <v>48.186827782863</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>47.61932243144521</v>
+        <v>47.54482894248328</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48.02582029325368</v>
+        <v>47.8744935618831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47.41461479771824</v>
+        <v>47.42984768335119</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>48.08451420701105</v>
+        <v>48.16251889522517</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>49.13184228719121</v>
+        <v>49.08134353678993</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>49.78518261733426</v>
+        <v>49.78192944108824</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>48.62001108599273</v>
+        <v>48.65221729053557</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49.04052853918069</v>
+        <v>49.05975312053754</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>48.90377092814101</v>
+        <v>48.93306869213462</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>48.78242602301422</v>
+        <v>48.66459093660117</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>48.49833380877411</v>
+        <v>48.63146675986876</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>49.35768649856753</v>
+        <v>49.35072842238961</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>48.79799926609851</v>
+        <v>48.8044631240324</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>49.13939344068223</v>
+        <v>49.11888142051835</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48.39599651727662</v>
+        <v>48.36724594916066</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>49.0395872838526</v>
+        <v>49.0544520324941</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>46.00270410737041</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>48.20291940516123</v>
+        <v>48.20291940516124</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>46.50015502918799</v>
+        <v>46.49390294006028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>48.29411719010365</v>
+        <v>48.2610821095477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45.62539144098397</v>
+        <v>45.56386615932819</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47.46960081015709</v>
+        <v>47.41803938090907</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>45.41653879508825</v>
+        <v>45.38382880496589</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>47.7197408415394</v>
+        <v>47.81130775520606</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>43.64674725116672</v>
+        <v>43.59721698016551</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>47.29231337832021</v>
+        <v>47.30467794275052</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>46.48125058118175</v>
+        <v>46.43997317739588</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48.33663843459254</v>
+        <v>48.31154058812632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45.42479508911813</v>
+        <v>45.41456031928644</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>47.61167101110729</v>
+        <v>47.63556770200879</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>47.79854059697846</v>
+        <v>47.8393580627117</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>49.36506276251672</v>
+        <v>49.35342302400197</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46.86638815193043</v>
+        <v>46.87273007402328</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48.84342693300591</v>
+        <v>48.90350870491159</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>48.07585839850665</v>
+        <v>48.09668708195778</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>49.30474879803847</v>
+        <v>49.3526188093898</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>46.50032797287128</v>
+        <v>46.49027390335936</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>49.12968573699415</v>
+        <v>49.1527267410346</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>47.65227910766269</v>
+        <v>47.65991551843717</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49.18186950008111</v>
+        <v>49.16230540058243</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46.60933136301947</v>
+        <v>46.55206490035643</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>48.76540563186435</v>
+        <v>48.76084847805426</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>46.60216090056092</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>48.05452779987988</v>
+        <v>48.05452779987989</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>46.76218445119812</v>
@@ -1101,7 +1101,7 @@
         <v>46.60580320243611</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>47.9248710082536</v>
+        <v>47.92487100825359</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>46.54313280900403</v>
+        <v>46.52412065081558</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>47.09970427178966</v>
+        <v>47.13253971969461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46.20049421935579</v>
+        <v>46.18947171264206</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47.32799179255942</v>
+        <v>47.35682467171119</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>45.67028911087078</v>
+        <v>45.69722131662978</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>46.65379505208614</v>
+        <v>46.68414582978386</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>46.1280803297915</v>
+        <v>46.08731576892497</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>47.586220292706</v>
+        <v>47.59282465664131</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>46.39775817813446</v>
+        <v>46.37241108691975</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47.10598263060525</v>
+        <v>47.12635110784392</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46.28721911511023</v>
+        <v>46.30028918155047</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>47.57667010289391</v>
+        <v>47.5742722034112</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>47.43821860008305</v>
+        <v>47.44653501636396</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>48.06712040231982</v>
+        <v>48.0759092449733</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>46.9987599195076</v>
+        <v>46.97012284228973</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48.28887368818238</v>
+        <v>48.31609134533939</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>46.91182999070369</v>
+        <v>46.99106077438906</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>47.80851673891323</v>
+        <v>47.8343346871808</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>47.0692256846656</v>
+        <v>47.0734913799803</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>48.48955630515705</v>
+        <v>48.47362237827762</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>47.14732948797506</v>
+        <v>47.10833105934474</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>47.80767713899895</v>
+        <v>47.84671917664487</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46.88544211737167</v>
+        <v>46.93201297971023</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>48.23505939107444</v>
+        <v>48.25327837779028</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>45.76282137642239</v>
+        <v>45.54336928698788</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>47.03395213195795</v>
+        <v>47.09269272769155</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45.16950561993396</v>
+        <v>45.25211957148187</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44.19930099213502</v>
+        <v>44.11666022643676</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>44.3966469347637</v>
+        <v>44.5296432222647</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>46.23400366408853</v>
+        <v>46.27194279880539</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>44.851286131704</v>
+        <v>44.90973453404849</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>44.81060841673029</v>
+        <v>44.81559426932191</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>45.15914037937704</v>
+        <v>45.11916570534069</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>46.74800229522955</v>
+        <v>46.76899923335379</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45.2097976450566</v>
+        <v>45.27123028727797</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>44.83643174475365</v>
+        <v>44.78903956606906</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>47.5826622136706</v>
+        <v>47.47951504454699</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>48.32120925471459</v>
+        <v>48.3804538997867</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46.4360264483031</v>
+        <v>46.46635857750854</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46.10477823861203</v>
+        <v>46.10839480528102</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>45.90654032264733</v>
+        <v>45.94563893439497</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>47.44313199559453</v>
+        <v>47.32017133370407</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>45.99594400022386</v>
+        <v>46.04340802450853</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>45.96599986827643</v>
+        <v>46.0044558238514</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>46.35607229537393</v>
+        <v>46.29817806475015</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>47.59518602247216</v>
+        <v>47.58480038745259</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46.03608463000922</v>
+        <v>46.072527192214</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>45.85253598051474</v>
+        <v>45.86556777337418</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>46.24331896390839</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>47.08050069699397</v>
+        <v>47.08050069699398</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>47.0161879012742</v>
@@ -1373,7 +1373,7 @@
         <v>46.70850209712327</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>48.01056029975817</v>
+        <v>48.01056029975818</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>49.57060599948936</v>
+        <v>49.55534815945339</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>49.20500041239468</v>
+        <v>49.22065406835578</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47.73999333155398</v>
+        <v>47.74311011818954</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50.09309505643569</v>
+        <v>50.13054734842678</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>45.69673149009108</v>
+        <v>45.7215497353269</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>47.27202779073833</v>
+        <v>47.23465302049946</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>45.78278140241603</v>
+        <v>45.78239112071135</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>46.52814425322068</v>
+        <v>46.58614040901262</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>46.55571258055024</v>
+        <v>46.54207490018646</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47.73355861734974</v>
+        <v>47.74528951045768</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46.31975586700918</v>
+        <v>46.29320995744257</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>47.47490039454915</v>
+        <v>47.47188030506516</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>50.74446610209749</v>
+        <v>50.78864464696063</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>50.61770532956931</v>
+        <v>50.61356100891037</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>49.11655622448329</v>
+        <v>49.05547426983973</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52.20768809143787</v>
+        <v>52.23442053861046</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>46.77648088612452</v>
+        <v>46.79491531303479</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>48.17552291928987</v>
+        <v>48.11894900371563</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>46.66487496146578</v>
+        <v>46.67938633923191</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>47.62382214368331</v>
+        <v>47.66933097920769</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>47.44200278472637</v>
+        <v>47.42541571394119</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>48.50894096177331</v>
+        <v>48.53571987151481</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47.09460936131548</v>
+        <v>47.07349668490754</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>48.50199600110874</v>
+        <v>48.49313790827033</v>
       </c>
     </row>
     <row r="22">
@@ -1485,10 +1485,10 @@
         <v>46.89170826476284</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48.01365891101424</v>
+        <v>48.01365891101425</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>46.52914476341211</v>
+        <v>46.52914476341212</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>47.60936029894557</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>47.33948516417193</v>
+        <v>47.34020515997959</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>48.12784313590883</v>
+        <v>48.15162232929886</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46.66065291869865</v>
+        <v>46.63846794894776</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47.69419505564542</v>
+        <v>47.69478531251894</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>46.22582705680811</v>
+        <v>46.21095136213514</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>47.36599802384409</v>
+        <v>47.36781502464723</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>46.20424116039211</v>
+        <v>46.23418308626643</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>47.39989659046442</v>
+        <v>47.37494125762692</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>46.84926768215387</v>
+        <v>46.85439107685829</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>47.81555648996608</v>
+        <v>47.82664603744693</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>46.5154493022135</v>
+        <v>46.51427954366892</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>47.61140351629978</v>
+        <v>47.61886960711904</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>47.88990730431507</v>
+        <v>47.88992267699788</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>48.64126445710038</v>
+        <v>48.64624056946684</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>47.12603580994896</v>
+        <v>47.12672448102429</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48.2987229334536</v>
+        <v>48.31459873287822</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>46.81884831643893</v>
+        <v>46.8284140998104</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>47.85093283382341</v>
+        <v>47.87441063984804</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>46.70625699998021</v>
+        <v>46.719920885171</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>47.86379335634224</v>
+        <v>47.85389029968798</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>47.26736561787447</v>
+        <v>47.2652489150933</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>48.15962073615179</v>
+        <v>48.17757945824829</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46.85988174520497</v>
+        <v>46.85377325511767</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>47.99967526098314</v>
+        <v>47.99487193561496</v>
       </c>
     </row>
     <row r="25">
